--- a/data/trans_orig/P29_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P29_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>89124</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63700</v>
+        <v>62296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118818</v>
+        <v>116657</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2185516509798416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.156207911713593</v>
+        <v>0.1527631244316895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2913688022449475</v>
+        <v>0.2860700140595503</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -762,19 +762,19 @@
         <v>118810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93990</v>
+        <v>93541</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>143688</v>
+        <v>142918</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.327739867744144</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2592730304564765</v>
+        <v>0.2580367551836139</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3963683444459647</v>
+        <v>0.3942422333082982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>102</v>
@@ -783,19 +783,19 @@
         <v>207933</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175534</v>
+        <v>173681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245430</v>
+        <v>248512</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.269936536406949</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2278761424588458</v>
+        <v>0.2254698922019524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3186136711789787</v>
+        <v>0.3226155158451395</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>48719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30358</v>
+        <v>31711</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69541</v>
+        <v>73300</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1194688915271385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07444488032135468</v>
+        <v>0.07776185783193519</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1705304585411409</v>
+        <v>0.1797492501321219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -833,19 +833,19 @@
         <v>38849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25252</v>
+        <v>26150</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57278</v>
+        <v>55918</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1071672584295182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06965848354134188</v>
+        <v>0.07213456240528118</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1580041568940931</v>
+        <v>0.154250991710061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -854,19 +854,19 @@
         <v>87568</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65543</v>
+        <v>66444</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115903</v>
+        <v>115144</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1136796403971192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08508727865259572</v>
+        <v>0.08625697148826771</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1504636390107288</v>
+        <v>0.1494782438470855</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>65615</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43629</v>
+        <v>43797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91375</v>
+        <v>91992</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.160902927603599</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1069871714410687</v>
+        <v>0.1074011374261036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2240728573302422</v>
+        <v>0.2255855836629746</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -904,19 +904,19 @@
         <v>45814</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31673</v>
+        <v>29762</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>65644</v>
+        <v>65361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1263786350566845</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08737141185307622</v>
+        <v>0.08210052959572334</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1810809684993454</v>
+        <v>0.180299352953429</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -925,19 +925,19 @@
         <v>111429</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82991</v>
+        <v>86106</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>141243</v>
+        <v>146218</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1446555076021842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1077376581200476</v>
+        <v>0.1117821621185145</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1833596338232732</v>
+        <v>0.1898177464228233</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>105606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77167</v>
+        <v>79281</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>135320</v>
+        <v>139984</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2589702303705982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1892304513477165</v>
+        <v>0.1944153208340061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3318360510572053</v>
+        <v>0.3432710027114404</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -975,19 +975,19 @@
         <v>94872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72193</v>
+        <v>73569</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117878</v>
+        <v>121615</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2617067863801354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1991477044507673</v>
+        <v>0.2029416967314978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3251690056879667</v>
+        <v>0.3354778174477301</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -996,19 +996,19 @@
         <v>200478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>162178</v>
+        <v>163514</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>236640</v>
+        <v>238008</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2602580764512653</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2105380129115556</v>
+        <v>0.2122723451404798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3072026378087512</v>
+        <v>0.3089785576233916</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>75811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50329</v>
+        <v>50756</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101262</v>
+        <v>102024</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1859048213378786</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1234174498908425</v>
+        <v>0.1244655416320607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2483182131261722</v>
+        <v>0.2501850908729246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1046,19 +1046,19 @@
         <v>54135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37126</v>
+        <v>38041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74051</v>
+        <v>73906</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1493320143808856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1024144687743947</v>
+        <v>0.1049360330650252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2042724421458616</v>
+        <v>0.2038711431782826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -1067,19 +1067,19 @@
         <v>129945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>98322</v>
+        <v>101275</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160352</v>
+        <v>165151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.168693353370694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1276403831831659</v>
+        <v>0.1314732523273175</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2081664030004375</v>
+        <v>0.2143969435342498</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>6701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19898</v>
+        <v>22347</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01643197831511279</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004169042597288179</v>
+        <v>0.004158743422589834</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0487943940850248</v>
+        <v>0.05480096882205174</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1117,19 +1117,19 @@
         <v>7589</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2026</v>
+        <v>2304</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19631</v>
+        <v>21449</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02093407299893042</v>
+        <v>0.02093407299893043</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005589018511997256</v>
+        <v>0.006354482249809817</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05415186900120713</v>
+        <v>0.05916660593936441</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -1138,19 +1138,19 @@
         <v>14290</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5716</v>
+        <v>5765</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29914</v>
+        <v>30547</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01855070162029632</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007419859619165733</v>
+        <v>0.007483890187320976</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03883407302190296</v>
+        <v>0.03965578303149911</v>
       </c>
     </row>
     <row r="10">
@@ -1261,19 +1261,19 @@
         <v>16218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7417</v>
+        <v>8128</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31740</v>
+        <v>31602</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03976949986583136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01818705148407039</v>
+        <v>0.01993232062117061</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07783410357666186</v>
+        <v>0.07749601683415311</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14261</v>
+        <v>12202</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006741365009701746</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03933958559053789</v>
+        <v>0.03365831115227551</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1303,19 +1303,19 @@
         <v>18662</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9682</v>
+        <v>8718</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35259</v>
+        <v>32486</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02422618415149202</v>
+        <v>0.02422618415149203</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01256903992217608</v>
+        <v>0.01131761115847704</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04577248205006976</v>
+        <v>0.04217234498877648</v>
       </c>
     </row>
     <row r="13">
@@ -1407,19 +1407,19 @@
         <v>80516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62537</v>
+        <v>61102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101596</v>
+        <v>101727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.168836103358175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1311342301811277</v>
+        <v>0.1281253227683295</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2130381341265541</v>
+        <v>0.2133130338608142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1428,19 +1428,19 @@
         <v>112708</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93431</v>
+        <v>94130</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135789</v>
+        <v>132761</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2253700612203461</v>
+        <v>0.2253700612203462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1868238044801087</v>
+        <v>0.1882211666228287</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2715222186644034</v>
+        <v>0.2654672109516611</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>161</v>
@@ -1449,19 +1449,19 @@
         <v>193225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>164159</v>
+        <v>165498</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>223713</v>
+        <v>224246</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1977747015275009</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1680249132044147</v>
+        <v>0.1693955478330486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2289805414400954</v>
+        <v>0.229526876096571</v>
       </c>
     </row>
     <row r="15">
@@ -1478,19 +1478,19 @@
         <v>44289</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>30453</v>
+        <v>31736</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>63128</v>
+        <v>61613</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09286975450184819</v>
+        <v>0.09286975450184817</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06385797552502685</v>
+        <v>0.06654777196718145</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1323739220558944</v>
+        <v>0.1291968962052933</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>67</v>
@@ -1499,19 +1499,19 @@
         <v>72620</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56659</v>
+        <v>56083</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>91079</v>
+        <v>90847</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.145209480733843</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1132950765016451</v>
+        <v>0.112142889945254</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.182120460911656</v>
+        <v>0.1816569526958859</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>98</v>
@@ -1520,19 +1520,19 @@
         <v>116908</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>94356</v>
+        <v>94481</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>141606</v>
+        <v>140068</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1196614096945181</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09657791091197254</v>
+        <v>0.09670567874132875</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1449409091193515</v>
+        <v>0.1433665852513891</v>
       </c>
     </row>
     <row r="16">
@@ -1549,19 +1549,19 @@
         <v>55539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39656</v>
+        <v>38703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76344</v>
+        <v>75708</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1164612929484493</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08315479227718003</v>
+        <v>0.08115760031032761</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1600870196004133</v>
+        <v>0.1587530848597496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -1570,19 +1570,19 @@
         <v>95809</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78509</v>
+        <v>78416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>116663</v>
+        <v>117219</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1915786496274812</v>
+        <v>0.1915786496274813</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1569847807640049</v>
+        <v>0.1567992682033942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2332786052464385</v>
+        <v>0.2343892912839851</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -1591,19 +1591,19 @@
         <v>151348</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>126264</v>
+        <v>127456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178549</v>
+        <v>180448</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.154912359929751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1292371594138864</v>
+        <v>0.1304571646696426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1827535161401168</v>
+        <v>0.184697253250696</v>
       </c>
     </row>
     <row r="17">
@@ -1620,19 +1620,19 @@
         <v>105093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84763</v>
+        <v>84212</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135303</v>
+        <v>130063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2203718973003101</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1777411690512197</v>
+        <v>0.1765863345610789</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2837203401373314</v>
+        <v>0.2727308160707115</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -1641,19 +1641,19 @@
         <v>119395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100553</v>
+        <v>99599</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>140578</v>
+        <v>142220</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2387416901480203</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2010637298752599</v>
+        <v>0.1991578219338419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2810979039012182</v>
+        <v>0.2843813163445442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>172</v>
@@ -1662,19 +1662,19 @@
         <v>224489</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194691</v>
+        <v>196257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>254897</v>
+        <v>258527</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2297750255045951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1992754642657042</v>
+        <v>0.2008779780578738</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2608996285477501</v>
+        <v>0.2646144901505665</v>
       </c>
     </row>
     <row r="18">
@@ -1691,19 +1691,19 @@
         <v>129163</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105841</v>
+        <v>105665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>156701</v>
+        <v>157127</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2708434287164961</v>
+        <v>0.2708434287164962</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2219402192420939</v>
+        <v>0.221570747303704</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3285904208256993</v>
+        <v>0.3294830812778119</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -1712,19 +1712,19 @@
         <v>75798</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>60443</v>
+        <v>61184</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>94007</v>
+        <v>94501</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1515637782162468</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1208621015626379</v>
+        <v>0.1223425420810398</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1879757447717347</v>
+        <v>0.1889638266665678</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -1733,19 +1733,19 @@
         <v>204960</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>178123</v>
+        <v>176577</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>241625</v>
+        <v>237780</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2097865700401632</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1823172967291516</v>
+        <v>0.1807350243427741</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2473147107821448</v>
+        <v>0.2433789152877991</v>
       </c>
     </row>
     <row r="19">
@@ -1762,19 +1762,19 @@
         <v>13732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6537</v>
+        <v>6594</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24358</v>
+        <v>24920</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02879440496355827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01370769981470534</v>
+        <v>0.01382699078096735</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05107650939217946</v>
+        <v>0.05225556649631847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1783,19 +1783,19 @@
         <v>8914</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4155</v>
+        <v>4588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16153</v>
+        <v>16552</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0178234965465295</v>
+        <v>0.01782349654652949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008308418130655543</v>
+        <v>0.009174785665836557</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03229889126519615</v>
+        <v>0.03309662712699148</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1804,19 +1804,19 @@
         <v>22645</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14016</v>
+        <v>13841</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34894</v>
+        <v>34162</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02317861717444065</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01434649796074221</v>
+        <v>0.01416667083416435</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03571573667707481</v>
+        <v>0.03496629826852533</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>6557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2174</v>
+        <v>1364</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16228</v>
+        <v>18021</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01375032791975338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004559615707735104</v>
+        <v>0.002859453707928953</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03402962400628287</v>
+        <v>0.03778874195015187</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9421</v>
+        <v>7932</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003381842131322685</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01883803648325221</v>
+        <v>0.01586001894047338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1875,19 +1875,19 @@
         <v>8249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2900</v>
+        <v>2820</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20234</v>
+        <v>20719</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00844290818120832</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002968322758331853</v>
+        <v>0.002886897482926357</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0207102551096821</v>
+        <v>0.02120703465176709</v>
       </c>
     </row>
     <row r="21">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10508</v>
+        <v>10730</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.006132353569158326</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02203463412347046</v>
+        <v>0.02250014674078963</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1925,19 +1925,19 @@
         <v>2956</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8994</v>
+        <v>9413</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005911410817473988</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001711005169312739</v>
+        <v>0.001715018832703264</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01798385645483902</v>
+        <v>0.01882223360157481</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1946,19 +1946,19 @@
         <v>5881</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2063</v>
+        <v>2051</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>14053</v>
+        <v>12872</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006019257409766725</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002111963534360749</v>
+        <v>0.002099573174576535</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01438369849715462</v>
+        <v>0.01317481054812151</v>
       </c>
     </row>
     <row r="22">
@@ -1975,19 +1975,19 @@
         <v>39077</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26484</v>
+        <v>26349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56533</v>
+        <v>54433</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08194043672225129</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05553536384271534</v>
+        <v>0.05525255273122748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1185446738557106</v>
+        <v>0.1141409178767601</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -1996,19 +1996,19 @@
         <v>10212</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5370</v>
+        <v>5293</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17844</v>
+        <v>19067</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02041959055873636</v>
+        <v>0.02041959055873635</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01073877323501578</v>
+        <v>0.01058371333807715</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03568137187293153</v>
+        <v>0.03812658968075097</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2017,19 +2017,19 @@
         <v>49289</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36229</v>
+        <v>34635</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68614</v>
+        <v>67653</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05044915053805594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0370820686044064</v>
+        <v>0.03545091182727102</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07023013053474365</v>
+        <v>0.06924587811465258</v>
       </c>
     </row>
     <row r="23">
@@ -2121,19 +2121,19 @@
         <v>110471</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>90928</v>
+        <v>90434</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>130355</v>
+        <v>131921</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.178277586252018</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1467383212413447</v>
+        <v>0.1459416084010623</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2103656539255937</v>
+        <v>0.2128929596809115</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>231</v>
@@ -2142,19 +2142,19 @@
         <v>161419</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>144494</v>
+        <v>143942</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>180969</v>
+        <v>179842</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.260137866818363</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2328609835330963</v>
+        <v>0.2319721685428663</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2916434680743364</v>
+        <v>0.2898275058731982</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>333</v>
@@ -2163,19 +2163,19 @@
         <v>271891</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>247243</v>
+        <v>246548</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>301390</v>
+        <v>303515</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2192359493447142</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1993613314955236</v>
+        <v>0.1988009339979991</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2430228189361404</v>
+        <v>0.2447358794963812</v>
       </c>
     </row>
     <row r="25">
@@ -2192,19 +2192,19 @@
         <v>48107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35662</v>
+        <v>36089</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63013</v>
+        <v>62659</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0776343610884792</v>
+        <v>0.07763436108847918</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05755179935650788</v>
+        <v>0.0582405694563525</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1016895157657333</v>
+        <v>0.1011190937085262</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>112</v>
@@ -2213,19 +2213,19 @@
         <v>80984</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>68137</v>
+        <v>68537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96693</v>
+        <v>96305</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1305107178266846</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1098067825362625</v>
+        <v>0.1104524826246878</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1558272481579677</v>
+        <v>0.1552025742286568</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>157</v>
@@ -2234,19 +2234,19 @@
         <v>129091</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>110482</v>
+        <v>110656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>149709</v>
+        <v>151449</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.104090769536128</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08908566384564906</v>
+        <v>0.08922593426511888</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1207159911957426</v>
+        <v>0.1221192156906148</v>
       </c>
     </row>
     <row r="26">
@@ -2263,19 +2263,19 @@
         <v>81114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62634</v>
+        <v>66347</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>101314</v>
+        <v>101456</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1309016132758616</v>
+        <v>0.1309016132758615</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1010774612591737</v>
+        <v>0.1070699734021168</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1634992994269707</v>
+        <v>0.1637287439708036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>166</v>
@@ -2284,19 +2284,19 @@
         <v>129224</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>111486</v>
+        <v>112119</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>147420</v>
+        <v>148691</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2082527116863292</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1796672854824693</v>
+        <v>0.1806866371978013</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2375769963750647</v>
+        <v>0.239625405516422</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -2305,19 +2305,19 @@
         <v>210338</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187585</v>
+        <v>186020</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>237844</v>
+        <v>239833</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1696038306686679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1512569607571607</v>
+        <v>0.1499951725000952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.191782884186616</v>
+        <v>0.1933866679576507</v>
       </c>
     </row>
     <row r="27">
@@ -2334,19 +2334,19 @@
         <v>125560</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>104431</v>
+        <v>104375</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>148388</v>
+        <v>150349</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2026282509014589</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1685303156739812</v>
+        <v>0.1684397926514516</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2394667559352777</v>
+        <v>0.24263227547122</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>180</v>
@@ -2355,19 +2355,19 @@
         <v>134657</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>117822</v>
+        <v>118847</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>152824</v>
+        <v>152260</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2170091410443805</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1898783485901077</v>
+        <v>0.1915303051311612</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.24628584988807</v>
+        <v>0.2453768288832731</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>285</v>
@@ -2376,19 +2376,19 @@
         <v>260218</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>233848</v>
+        <v>232179</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>289247</v>
+        <v>288204</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2098236540444103</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1885609645296732</v>
+        <v>0.1872150853567359</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2332315238531461</v>
+        <v>0.2323905502049728</v>
       </c>
     </row>
     <row r="28">
@@ -2405,19 +2405,19 @@
         <v>145870</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>123273</v>
+        <v>126368</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>168103</v>
+        <v>170753</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2354040460643526</v>
+        <v>0.2354040460643525</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1989375211297483</v>
+        <v>0.203931587555999</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2712834824983177</v>
+        <v>0.2755601403238387</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>128</v>
@@ -2426,19 +2426,19 @@
         <v>94301</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>79701</v>
+        <v>79995</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>110694</v>
+        <v>110332</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1519716844207573</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1284430270128689</v>
+        <v>0.1289176561844529</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1783907161334047</v>
+        <v>0.1778076596118293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>254</v>
@@ -2447,19 +2447,19 @@
         <v>240171</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>214608</v>
+        <v>212188</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>271218</v>
+        <v>268922</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1936591004296995</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1730469522835936</v>
+        <v>0.1710954707530865</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2186933689188599</v>
+        <v>0.2168425484907442</v>
       </c>
     </row>
     <row r="29">
@@ -2476,19 +2476,19 @@
         <v>28740</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18195</v>
+        <v>17742</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>40914</v>
+        <v>41282</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04637996785885134</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02936373015392641</v>
+        <v>0.02863266856267644</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0660269190507369</v>
+        <v>0.06662099543612962</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2497,19 +2497,19 @@
         <v>3434</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1186</v>
+        <v>1128</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8248</v>
+        <v>7503</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005534373974485809</v>
+        <v>0.005534373974485808</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001910921907166993</v>
+        <v>0.0018175566050535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01329301175944128</v>
+        <v>0.01209205138609173</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2518,19 +2518,19 @@
         <v>32174</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21337</v>
+        <v>21879</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>45232</v>
+        <v>45400</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02594308866080399</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01720500616467697</v>
+        <v>0.01764209819467027</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03647198963343073</v>
+        <v>0.03660817475930254</v>
       </c>
     </row>
     <row r="30">
@@ -2547,19 +2547,19 @@
         <v>4063</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1071</v>
+        <v>1087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11274</v>
+        <v>11815</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.006556914341293325</v>
+        <v>0.006556914341293324</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.001728336354394711</v>
+        <v>0.00175488068396477</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0181939759727559</v>
+        <v>0.01906766749370834</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>4</v>
@@ -2568,19 +2568,19 @@
         <v>2579</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6757</v>
+        <v>6287</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.004156818749413566</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001087035815453642</v>
+        <v>0.00107500478435705</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01088928755413546</v>
+        <v>0.01013149271458194</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>7</v>
@@ -2589,19 +2589,19 @@
         <v>6642</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2766</v>
+        <v>2341</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>14033</v>
+        <v>14105</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.005356039069069957</v>
+        <v>0.005356039069069956</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002229977129978754</v>
+        <v>0.001887857719030089</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01131526177944798</v>
+        <v>0.01137307690479755</v>
       </c>
     </row>
     <row r="31">
@@ -2618,19 +2618,19 @@
         <v>6231</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2288</v>
+        <v>2063</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13096</v>
+        <v>13416</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01005513717308484</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.003692570499925015</v>
+        <v>0.003329839555107276</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02113464277093779</v>
+        <v>0.02165137432261586</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -2639,19 +2639,19 @@
         <v>2023</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6104</v>
+        <v>5599</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003259694673619981</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0007567501928164493</v>
+        <v>0.0007527487257345917</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.009837454268190488</v>
+        <v>0.009022817172682836</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -2660,19 +2660,19 @@
         <v>8253</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3981</v>
+        <v>3970</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15652</v>
+        <v>15384</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.006655073071874685</v>
+        <v>0.006655073071874687</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003210333685582876</v>
+        <v>0.003201097299486926</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01262116054010327</v>
+        <v>0.01240476094053325</v>
       </c>
     </row>
     <row r="32">
@@ -2689,19 +2689,19 @@
         <v>69502</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54338</v>
+        <v>54456</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>87383</v>
+        <v>86328</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1121621230446004</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0876898148288623</v>
+        <v>0.08787993226496256</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1410180653123865</v>
+        <v>0.1393151744166729</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>15</v>
@@ -2710,19 +2710,19 @@
         <v>11893</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7050</v>
+        <v>6642</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>19701</v>
+        <v>19543</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01916699080596596</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0113607916846122</v>
+        <v>0.0107042059510306</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03174967296431917</v>
+        <v>0.03149436412696937</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>78</v>
@@ -2731,19 +2731,19 @@
         <v>81396</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>64419</v>
+        <v>64471</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100686</v>
+        <v>101255</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.06563249517463136</v>
+        <v>0.06563249517463138</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05194393230241857</v>
+        <v>0.05198541637376759</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08118726481601428</v>
+        <v>0.08164622816004385</v>
       </c>
     </row>
     <row r="33">
@@ -2835,19 +2835,19 @@
         <v>116593</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>97535</v>
+        <v>97186</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>139083</v>
+        <v>136727</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1674579264378007</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1400865623478564</v>
+        <v>0.139584533649217</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1997605868187139</v>
+        <v>0.196375795771816</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>320</v>
@@ -2856,19 +2856,19 @@
         <v>199893</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>181083</v>
+        <v>181443</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>220316</v>
+        <v>218875</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2715256613344977</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2459755736703303</v>
+        <v>0.2464643710199602</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2992679558585853</v>
+        <v>0.2973098005736713</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>438</v>
@@ -2877,19 +2877,19 @@
         <v>316485</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>291418</v>
+        <v>288812</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>348817</v>
+        <v>345204</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.220942404504423</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.203442258300326</v>
+        <v>0.2016233186402462</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2435134282398713</v>
+        <v>0.2409913225200943</v>
       </c>
     </row>
     <row r="35">
@@ -2906,19 +2906,19 @@
         <v>80116</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>64706</v>
+        <v>63522</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>98591</v>
+        <v>97691</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1150683497594996</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09293443038474107</v>
+        <v>0.09123407733401748</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1416028375580078</v>
+        <v>0.1403108859566023</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>169</v>
@@ -2927,19 +2927,19 @@
         <v>104708</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>91857</v>
+        <v>90503</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>120706</v>
+        <v>120454</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1422308586669968</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1247746753436098</v>
+        <v>0.1229356439261469</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1639617780182683</v>
+        <v>0.1636189049897105</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>247</v>
@@ -2948,19 +2948,19 @@
         <v>184824</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>163480</v>
+        <v>165660</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>208638</v>
+        <v>210821</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1290282251554575</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1141271170054306</v>
+        <v>0.1156491745352694</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1456530071273058</v>
+        <v>0.1471769716591037</v>
       </c>
     </row>
     <row r="36">
@@ -2977,19 +2977,19 @@
         <v>86980</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>70752</v>
+        <v>70946</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>108058</v>
+        <v>106767</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1249269094786883</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.101619140187228</v>
+        <v>0.1018969388586375</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1551998964465784</v>
+        <v>0.1533451304285048</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>195</v>
@@ -2998,19 +2998,19 @@
         <v>131299</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>116616</v>
+        <v>115083</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>149035</v>
+        <v>148946</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1783514717257363</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1584054965693446</v>
+        <v>0.1563242859242438</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2024421099877844</v>
+        <v>0.2023223138445414</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>271</v>
@@ -3019,19 +3019,19 @@
         <v>218280</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>191523</v>
+        <v>193312</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>244388</v>
+        <v>242281</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1523838809459498</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1337048428315823</v>
+        <v>0.1349534905619927</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1706104156029342</v>
+        <v>0.1691396484322674</v>
       </c>
     </row>
     <row r="37">
@@ -3048,19 +3048,19 @@
         <v>122059</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>101349</v>
+        <v>101267</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>144872</v>
+        <v>143476</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1753092061111581</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1455645356473</v>
+        <v>0.1454463515931848</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2080745435669008</v>
+        <v>0.2060702251530483</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>227</v>
@@ -3069,19 +3069,19 @@
         <v>150205</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>133072</v>
+        <v>132719</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>167164</v>
+        <v>166455</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.204032169765779</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1807597788199811</v>
+        <v>0.1802792159243031</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2270681037783741</v>
+        <v>0.2261053565364417</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>337</v>
@@ -3090,19 +3090,19 @@
         <v>272264</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>244242</v>
+        <v>248264</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>298935</v>
+        <v>302022</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1900710602162648</v>
+        <v>0.1900710602162649</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1705087010611696</v>
+        <v>0.1733160550495146</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2086903074458307</v>
+        <v>0.210845335892909</v>
       </c>
     </row>
     <row r="38">
@@ -3119,19 +3119,19 @@
         <v>158168</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>137122</v>
+        <v>136458</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>182326</v>
+        <v>180633</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2271709108043812</v>
+        <v>0.2271709108043813</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1969436744405133</v>
+        <v>0.1959899578923028</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2618689626416465</v>
+        <v>0.259436513080428</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>164</v>
@@ -3140,19 +3140,19 @@
         <v>106616</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>91210</v>
+        <v>92123</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>122693</v>
+        <v>122005</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1448224638681664</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1238953209798588</v>
+        <v>0.1251353643513741</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1666602905256517</v>
+        <v>0.1657260240025114</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>313</v>
@@ -3161,19 +3161,19 @@
         <v>264784</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>238051</v>
+        <v>237157</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>291901</v>
+        <v>293754</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1848488240562418</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1661863580818065</v>
+        <v>0.1655622730537071</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2037794065488563</v>
+        <v>0.2050734608959018</v>
       </c>
     </row>
     <row r="39">
@@ -3190,19 +3190,19 @@
         <v>28811</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>19002</v>
+        <v>19908</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>42721</v>
+        <v>43259</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04138013909599927</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02729120730127809</v>
+        <v>0.02859343100693279</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.06135800669028077</v>
+        <v>0.06213095909671495</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>27</v>
@@ -3211,19 +3211,19 @@
         <v>18543</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>12363</v>
+        <v>12888</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>26683</v>
+        <v>26179</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02518769698912851</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01679339805950332</v>
+        <v>0.01750676257470724</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.03624495940627014</v>
+        <v>0.0355599282748662</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>55</v>
@@ -3232,19 +3232,19 @@
         <v>47354</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>34906</v>
+        <v>35390</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>60531</v>
+        <v>60070</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03305820996426923</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02436840393934539</v>
+        <v>0.02470634392636939</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04225739853986663</v>
+        <v>0.04193547793076454</v>
       </c>
     </row>
     <row r="40">
@@ -3261,19 +3261,19 @@
         <v>13015</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7380</v>
+        <v>7332</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>21859</v>
+        <v>21838</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01869276724688128</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01059975645679435</v>
+        <v>0.01053043145952433</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03139529449566848</v>
+        <v>0.03136549846826839</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>9</v>
@@ -3282,19 +3282,19 @@
         <v>5915</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2729</v>
+        <v>3050</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11210</v>
+        <v>11314</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00803468625891802</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00370707093837035</v>
+        <v>0.004143512213549223</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01522758432659484</v>
+        <v>0.01536884412366002</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>22</v>
@@ -3303,19 +3303,19 @@
         <v>18930</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>11872</v>
+        <v>12381</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>29416</v>
+        <v>29515</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01321516269059053</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008287709846680657</v>
+        <v>0.00864315531861205</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02053585298284988</v>
+        <v>0.02060496798328601</v>
       </c>
     </row>
     <row r="41">
@@ -3332,19 +3332,19 @@
         <v>12398</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6499</v>
+        <v>6845</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>22924</v>
+        <v>21871</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01780739886944104</v>
+        <v>0.01780739886944105</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.009334372175695689</v>
+        <v>0.00983064056712531</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03292561668392307</v>
+        <v>0.03141286692713244</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3356,16 +3356,16 @@
         <v>699</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6158</v>
+        <v>6119</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003465947179486507</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.000949861926689843</v>
+        <v>0.0009489489652040139</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008364407359033542</v>
+        <v>0.008311777753820616</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -3374,19 +3374,19 @@
         <v>14950</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>8274</v>
+        <v>8602</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24725</v>
+        <v>25286</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01043676608766381</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.005776240828359879</v>
+        <v>0.006005308854091478</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01726050680560057</v>
+        <v>0.01765217945214292</v>
       </c>
     </row>
     <row r="42">
@@ -3403,19 +3403,19 @@
         <v>78110</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>63892</v>
+        <v>62325</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>96978</v>
+        <v>95482</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.1121863921961504</v>
+        <v>0.1121863921961505</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09176541899605889</v>
+        <v>0.08951477371326202</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1392867694419521</v>
+        <v>0.1371371199331416</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>25</v>
@@ -3424,19 +3424,19 @@
         <v>16453</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10620</v>
+        <v>10948</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>24583</v>
+        <v>23585</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02234904421129067</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01442567121651909</v>
+        <v>0.01487186396312955</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03339289915964623</v>
+        <v>0.03203715774840424</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>103</v>
@@ -3445,19 +3445,19 @@
         <v>94563</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>77055</v>
+        <v>78558</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>114626</v>
+        <v>113645</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06601546637913958</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05379295103815788</v>
+        <v>0.05484237004737724</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08002198913031114</v>
+        <v>0.07933686415172045</v>
       </c>
     </row>
     <row r="43">
@@ -3549,19 +3549,19 @@
         <v>100534</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>81905</v>
+        <v>83360</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>119300</v>
+        <v>118649</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1652800620747319</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1346532045908757</v>
+        <v>0.1370462233165078</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1961317230996268</v>
+        <v>0.1950612901153143</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>322</v>
@@ -3570,19 +3570,19 @@
         <v>187510</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>170515</v>
+        <v>168652</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>204454</v>
+        <v>204236</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.3090318887583196</v>
+        <v>0.3090318887583194</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2810218942268862</v>
+        <v>0.2779511234804997</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3369565383194854</v>
+        <v>0.336596421992885</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>434</v>
@@ -3591,19 +3591,19 @@
         <v>288044</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>264151</v>
+        <v>263292</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>316194</v>
+        <v>313653</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2370673924073158</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2174021689939229</v>
+        <v>0.216695829555906</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2602355072599596</v>
+        <v>0.2581440408292395</v>
       </c>
     </row>
     <row r="45">
@@ -3620,19 +3620,19 @@
         <v>77329</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>63421</v>
+        <v>63105</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>93314</v>
+        <v>92919</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1271303030306895</v>
+        <v>0.1271303030306894</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1042652952924304</v>
+        <v>0.1037459351374402</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1534106413217385</v>
+        <v>0.1527612616438745</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>163</v>
@@ -3641,19 +3641,19 @@
         <v>94416</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>80824</v>
+        <v>82932</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>108278</v>
+        <v>109321</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1556044328126425</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1332037539388162</v>
+        <v>0.1366787951875871</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1784504341539729</v>
+        <v>0.1801699086537059</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>250</v>
@@ -3662,19 +3662,19 @@
         <v>171745</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>151932</v>
+        <v>151645</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>193893</v>
+        <v>194757</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1413498215421944</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1250439519898505</v>
+        <v>0.1248075882473207</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1595786838237325</v>
+        <v>0.1602895541707708</v>
       </c>
     </row>
     <row r="46">
@@ -3691,19 +3691,19 @@
         <v>84843</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>70583</v>
+        <v>69134</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>102945</v>
+        <v>101468</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1394840451709246</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1160390828910581</v>
+        <v>0.1136572846289282</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1692440031271529</v>
+        <v>0.1668156062750763</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>176</v>
@@ -3712,19 +3712,19 @@
         <v>113459</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>98249</v>
+        <v>99304</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>128017</v>
+        <v>129809</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.186989277611264</v>
+        <v>0.1869892776112639</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1619225320459342</v>
+        <v>0.1636614187730256</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2109815960731596</v>
+        <v>0.2139351492321397</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>266</v>
@@ -3733,19 +3733,19 @@
         <v>198302</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>173328</v>
+        <v>177683</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>220283</v>
+        <v>224601</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1632073876313107</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1426530981707702</v>
+        <v>0.1462372876051794</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1812981751678284</v>
+        <v>0.1848516568663185</v>
       </c>
     </row>
     <row r="47">
@@ -3762,19 +3762,19 @@
         <v>75954</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>60819</v>
+        <v>62181</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>92509</v>
+        <v>93188</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1248693607274078</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0999876524522046</v>
+        <v>0.1022274970062878</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1520867215664614</v>
+        <v>0.1532037416765504</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>158</v>
@@ -3783,19 +3783,19 @@
         <v>100183</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>85641</v>
+        <v>86342</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>115496</v>
+        <v>115719</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1651093484971311</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1411439635487104</v>
+        <v>0.1422980384468903</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1903464378007888</v>
+        <v>0.1907133008130816</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>238</v>
@@ -3804,19 +3804,19 @@
         <v>176137</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>157120</v>
+        <v>155425</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>199419</v>
+        <v>197540</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.144964557854625</v>
+        <v>0.1449645578546251</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1293134078650235</v>
+        <v>0.1279187442695237</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1641265374773509</v>
+        <v>0.1625800968434287</v>
       </c>
     </row>
     <row r="48">
@@ -3833,19 +3833,19 @@
         <v>93707</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>78234</v>
+        <v>77837</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>112773</v>
+        <v>110321</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1540568121438327</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1286189734170322</v>
+        <v>0.1279660726984233</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1854007101640737</v>
+        <v>0.1813693224421704</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>97</v>
@@ -3854,19 +3854,19 @@
         <v>60643</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>49795</v>
+        <v>50399</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>73153</v>
+        <v>73870</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.09994405397063234</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.08206551600367294</v>
+        <v>0.08306102443650291</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1205622119842364</v>
+        <v>0.1217442569031623</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>198</v>
@@ -3875,19 +3875,19 @@
         <v>154350</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>134465</v>
+        <v>134768</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>176333</v>
+        <v>174043</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1270337785184083</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1106679871319582</v>
+        <v>0.1109169424600382</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1451263266886078</v>
+        <v>0.1432414806684398</v>
       </c>
     </row>
     <row r="49">
@@ -3904,19 +3904,19 @@
         <v>23887</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>15873</v>
+        <v>15695</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>36414</v>
+        <v>34572</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.03927017438717764</v>
+        <v>0.03927017438717763</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02609545028222744</v>
+        <v>0.0258031840699624</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.059865853528164</v>
+        <v>0.05683642118939386</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>27</v>
@@ -3925,19 +3925,19 @@
         <v>16174</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>11086</v>
+        <v>10939</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>24475</v>
+        <v>22763</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.02665633374045942</v>
+        <v>0.02665633374045941</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01827118226069201</v>
+        <v>0.01802887404001833</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04033721703030378</v>
+        <v>0.03751582685149222</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>52</v>
@@ -3946,19 +3946,19 @@
         <v>40061</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>30034</v>
+        <v>29877</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>53711</v>
+        <v>53876</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03297102698739075</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02471836218007379</v>
+        <v>0.02458954572326696</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04420505878421933</v>
+        <v>0.04434116845611535</v>
       </c>
     </row>
     <row r="50">
@@ -3975,19 +3975,19 @@
         <v>5737</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2370</v>
+        <v>2382</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>11457</v>
+        <v>11745</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.009431444634044613</v>
+        <v>0.009431444634044611</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.003896475521033723</v>
+        <v>0.003915650847678638</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01883567890116753</v>
+        <v>0.01930933782663414</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>7</v>
@@ -3996,19 +3996,19 @@
         <v>4211</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1740</v>
+        <v>1282</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>7960</v>
+        <v>8212</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.006940444268176498</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.002867204584790606</v>
+        <v>0.002113331133273168</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01311863561889265</v>
+        <v>0.01353406291226006</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>14</v>
@@ -4017,19 +4017,19 @@
         <v>9948</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>5589</v>
+        <v>5579</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>16984</v>
+        <v>16834</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.008187479459836652</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.004599486142454898</v>
+        <v>0.004592031060733017</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01397836405007442</v>
+        <v>0.01385514981859909</v>
       </c>
     </row>
     <row r="51">
@@ -4046,19 +4046,19 @@
         <v>22056</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>15070</v>
+        <v>14647</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>32684</v>
+        <v>32305</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.03625999802708467</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.02477521501335472</v>
+        <v>0.02407934686209147</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.05373296942227787</v>
+        <v>0.05310982556110889</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>10</v>
@@ -4067,19 +4067,19 @@
         <v>6190</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>2980</v>
+        <v>2852</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>11084</v>
+        <v>10457</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.01020192147225281</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.004910579334666712</v>
+        <v>0.004700523640648443</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01826760469631736</v>
+        <v>0.01723407414943427</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>34</v>
@@ -4088,19 +4088,19 @@
         <v>28246</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>19384</v>
+        <v>20120</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>39048</v>
+        <v>39652</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.02324701730447485</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01595382178145847</v>
+        <v>0.01655884775756419</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.03213721160448111</v>
+        <v>0.03263434619202693</v>
       </c>
     </row>
     <row r="52">
@@ -4117,19 +4117,19 @@
         <v>124219</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>105412</v>
+        <v>106203</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>144229</v>
+        <v>144608</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.2042177998041067</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.173299145917293</v>
+        <v>0.1745996837427244</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.2371150120863811</v>
+        <v>0.2377382450893898</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>39</v>
@@ -4138,19 +4138,19 @@
         <v>23981</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>17207</v>
+        <v>17452</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>31825</v>
+        <v>31731</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.03952229886912179</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0283578609675863</v>
+        <v>0.02876157289165126</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.0524501450707612</v>
+        <v>0.05229587393930198</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>175</v>
@@ -4159,19 +4159,19 @@
         <v>148199</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>128505</v>
+        <v>128323</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>170317</v>
+        <v>168263</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1219715382944434</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.105762482795813</v>
+        <v>0.1056129648447771</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1401747044951637</v>
+        <v>0.1384844925940281</v>
       </c>
     </row>
     <row r="53">
@@ -4263,19 +4263,19 @@
         <v>66173</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>55340</v>
+        <v>55105</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>80103</v>
+        <v>80320</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1629247576923537</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1362526936953062</v>
+        <v>0.1356756361903607</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1972232884796246</v>
+        <v>0.1977566819779938</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>345</v>
@@ -4284,19 +4284,19 @@
         <v>175925</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>162623</v>
+        <v>162200</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>191973</v>
+        <v>190333</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.4012080428249432</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3708724473077328</v>
+        <v>0.3699077964439975</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.437807721239616</v>
+        <v>0.4340685792654246</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>439</v>
@@ -4305,19 +4305,19 @@
         <v>242097</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>222397</v>
+        <v>220125</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>263870</v>
+        <v>262433</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.2866271873639633</v>
+        <v>0.2866271873639632</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2633035670892649</v>
+        <v>0.2606142608519506</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.312405456198325</v>
+        <v>0.3107031101397048</v>
       </c>
     </row>
     <row r="55">
@@ -4334,19 +4334,19 @@
         <v>58680</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>48612</v>
+        <v>47956</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>71332</v>
+        <v>70848</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.144476873223673</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1196878788463462</v>
+        <v>0.1180732525544341</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1756288578683559</v>
+        <v>0.1744361315659453</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>126</v>
@@ -4355,19 +4355,19 @@
         <v>65151</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>55168</v>
+        <v>55589</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>76360</v>
+        <v>75631</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1485824172272925</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1258138951296684</v>
+        <v>0.1267735317772036</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1741433123399488</v>
+        <v>0.1724817771748995</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>213</v>
@@ -4376,19 +4376,19 @@
         <v>123831</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>108439</v>
+        <v>109178</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>139917</v>
+        <v>140295</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1466082261135278</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1283846090637737</v>
+        <v>0.1292601370364941</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1656520729232285</v>
+        <v>0.1660997709494214</v>
       </c>
     </row>
     <row r="56">
@@ -4405,19 +4405,19 @@
         <v>45122</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>35731</v>
+        <v>34273</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>56452</v>
+        <v>56513</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1110946847934108</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.08797514635038886</v>
+        <v>0.08438420531424279</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1389904733388509</v>
+        <v>0.1391427162807253</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>146</v>
@@ -4426,19 +4426,19 @@
         <v>82874</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>69950</v>
+        <v>71778</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>95721</v>
+        <v>95714</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1889988861377953</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1595261715184171</v>
+        <v>0.1636945032581966</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.2182980050472118</v>
+        <v>0.2182819277709498</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>208</v>
@@ -4447,19 +4447,19 @@
         <v>127995</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>113638</v>
+        <v>112382</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>146089</v>
+        <v>143561</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.151537886600723</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1345402208008329</v>
+        <v>0.1330529643144894</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1729592861046489</v>
+        <v>0.1699673287868338</v>
       </c>
     </row>
     <row r="57">
@@ -4476,19 +4476,19 @@
         <v>50475</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>39753</v>
+        <v>39400</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>63189</v>
+        <v>62641</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.124276363975963</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.09787550141785889</v>
+        <v>0.097008563011171</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1555790815364451</v>
+        <v>0.1542305746244171</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>81</v>
@@ -4497,19 +4497,19 @@
         <v>46035</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>37289</v>
+        <v>37889</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>55413</v>
+        <v>56959</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.1049862101254195</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.08503976802733854</v>
+        <v>0.08640954383613579</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.1263736106124062</v>
+        <v>0.1298997291840015</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>148</v>
@@ -4518,19 +4518,19 @@
         <v>96510</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>82443</v>
+        <v>82703</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>112992</v>
+        <v>111908</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.1142620698607732</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.09760766802585763</v>
+        <v>0.09791521725120328</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.1337757165629964</v>
+        <v>0.1324920992491212</v>
       </c>
     </row>
     <row r="58">
@@ -4547,19 +4547,19 @@
         <v>40977</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>31401</v>
+        <v>31620</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>52657</v>
+        <v>51504</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1008903499542469</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.0773121745579128</v>
+        <v>0.0778516080543792</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1296473035469025</v>
+        <v>0.1268099418665022</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>59</v>
@@ -4568,19 +4568,19 @@
         <v>31273</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>23919</v>
+        <v>24564</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>39248</v>
+        <v>39414</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.07131983551712648</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.05454897958297883</v>
+        <v>0.05602039705849114</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.08950796988705628</v>
+        <v>0.08988632007892547</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>114</v>
@@ -4589,19 +4589,19 @@
         <v>72250</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>59882</v>
+        <v>59567</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>84695</v>
+        <v>86240</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.08553910750148408</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.07089696752065103</v>
+        <v>0.0705235014468482</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.1002736461627141</v>
+        <v>0.1021026738019586</v>
       </c>
     </row>
     <row r="59">
@@ -4618,19 +4618,19 @@
         <v>10354</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>5676</v>
+        <v>5936</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>16452</v>
+        <v>17406</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.02549368050030619</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.01397569502672509</v>
+        <v>0.0146156110427124</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.04050626191532985</v>
+        <v>0.04285642543549491</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>10</v>
@@ -4639,19 +4639,19 @@
         <v>5843</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>3013</v>
+        <v>3129</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>10599</v>
+        <v>10642</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01332579234681998</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.006870448096733076</v>
+        <v>0.007134812592944526</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.02417176165899434</v>
+        <v>0.02427018535593078</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>25</v>
@@ -4660,19 +4660,19 @@
         <v>16198</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>11006</v>
+        <v>10787</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>24146</v>
+        <v>23163</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01917684074496585</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.01302983632363693</v>
+        <v>0.01277162732877102</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.0285871753453333</v>
+        <v>0.02742329576176284</v>
       </c>
     </row>
     <row r="60">
@@ -4689,19 +4689,19 @@
         <v>4797</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>2223</v>
+        <v>1892</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>9797</v>
+        <v>9873</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.01181113608477127</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.005473204167478582</v>
+        <v>0.004657719019984456</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.02412205949293424</v>
+        <v>0.02430901737626018</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>7</v>
@@ -4710,19 +4710,19 @@
         <v>3534</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>1531</v>
+        <v>1571</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>7107</v>
+        <v>7046</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.008059959301064287</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.003491043493375599</v>
+        <v>0.003583648903655193</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.01620860047180388</v>
+        <v>0.01606811963307882</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>14</v>
@@ -4731,19 +4731,19 @@
         <v>8331</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>4291</v>
+        <v>4542</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>13966</v>
+        <v>13539</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.009863749460425864</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.005080115587176791</v>
+        <v>0.005377055610879109</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01653442134086872</v>
+        <v>0.01602961164988661</v>
       </c>
     </row>
     <row r="61">
@@ -4760,19 +4760,19 @@
         <v>25125</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>17281</v>
+        <v>18148</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>33333</v>
+        <v>34607</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.06185997665525123</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.04254725347170207</v>
+        <v>0.04468255422944221</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.08207064016922301</v>
+        <v>0.08520635976507557</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>6</v>
@@ -4781,19 +4781,19 @@
         <v>3170</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>6315</v>
+        <v>6511</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.007229057195331133</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.002533215326142015</v>
+        <v>0.002549093579937317</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01440148876414268</v>
+        <v>0.01484823351196259</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>40</v>
@@ -4802,19 +4802,19 @@
         <v>28295</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>20601</v>
+        <v>20044</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>39259</v>
+        <v>38233</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.03349887080334163</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.02438968089660817</v>
+        <v>0.02373045006337142</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.04648031123849255</v>
+        <v>0.04526581843599277</v>
       </c>
     </row>
     <row r="62">
@@ -4831,19 +4831,19 @@
         <v>104452</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>90964</v>
+        <v>89357</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>118814</v>
+        <v>119572</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.2571721771200239</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.2239644834108936</v>
+        <v>0.2200089101046953</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.292535112494449</v>
+        <v>0.2944018498991205</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>46</v>
@@ -4852,19 +4852,19 @@
         <v>24682</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>18240</v>
+        <v>18402</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>32065</v>
+        <v>33716</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.05628979932420758</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.04159834636226205</v>
+        <v>0.04196650993907004</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.07312547824383353</v>
+        <v>0.07689191191629817</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>194</v>
@@ -4873,19 +4873,19 @@
         <v>129134</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>113034</v>
+        <v>112320</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>149380</v>
+        <v>145450</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1528860615507954</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.1338247958345459</v>
+        <v>0.1329792417825862</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.176855672444564</v>
+        <v>0.1722034001325163</v>
       </c>
     </row>
     <row r="63">
@@ -4977,19 +4977,19 @@
         <v>57325</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>46553</v>
+        <v>47110</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>69260</v>
+        <v>70102</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.1848006685514057</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1500741464905124</v>
+        <v>0.1518716922141448</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.2232762365770231</v>
+        <v>0.2259920588168338</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>456</v>
@@ -4998,19 +4998,19 @@
         <v>230199</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>212651</v>
+        <v>215151</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>245410</v>
+        <v>247067</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.4979306506605439</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.4599728817789324</v>
+        <v>0.4653804705706004</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.5308340639781555</v>
+        <v>0.5344179892728613</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>543</v>
@@ -5019,19 +5019,19 @@
         <v>287524</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>266732</v>
+        <v>268667</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>307345</v>
+        <v>309736</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.3721944766597089</v>
+        <v>0.3721944766597088</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.3452790800762047</v>
+        <v>0.3477842328995595</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.397853091188343</v>
+        <v>0.4009473165418637</v>
       </c>
     </row>
     <row r="65">
@@ -5048,19 +5048,19 @@
         <v>65832</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>54512</v>
+        <v>54509</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>77634</v>
+        <v>79366</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.2122251479885871</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.175732859539123</v>
+        <v>0.1757233982104117</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.2502719258956616</v>
+        <v>0.2558566153753278</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>193</v>
@@ -5069,19 +5069,19 @@
         <v>102416</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>90489</v>
+        <v>89281</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>119132</v>
+        <v>117198</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.2215307775507759</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.1957318436311725</v>
+        <v>0.1931195058018178</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.257687787601799</v>
+        <v>0.2535041082047024</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>295</v>
@@ -5090,19 +5090,19 @@
         <v>168248</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>151429</v>
+        <v>150470</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>186024</v>
+        <v>187061</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.2177941367796252</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.1960219688903158</v>
+        <v>0.1947810738787695</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.2408052274155653</v>
+        <v>0.2421476125309693</v>
       </c>
     </row>
     <row r="66">
@@ -5119,19 +5119,19 @@
         <v>52326</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>41833</v>
+        <v>41541</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>64689</v>
+        <v>64822</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.1686857845715068</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.1348599416866962</v>
+        <v>0.1339164047752895</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.2085406353318947</v>
+        <v>0.2089703420231232</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>137</v>
@@ -5140,19 +5140,19 @@
         <v>76565</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>65184</v>
+        <v>64574</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>89626</v>
+        <v>88444</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>0.1656132613750832</v>
+        <v>0.1656132613750833</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.1409955451605887</v>
+        <v>0.1396774185121123</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.1938647085024101</v>
+        <v>0.1913089992156992</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>207</v>
@@ -5161,19 +5161,19 @@
         <v>128891</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>113774</v>
+        <v>113228</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>147336</v>
+        <v>145807</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.1668470215811323</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.1472782526913779</v>
+        <v>0.146571704676887</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.1907233273118658</v>
+        <v>0.1887444551025053</v>
       </c>
     </row>
     <row r="67">
@@ -5190,19 +5190,19 @@
         <v>32917</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>24123</v>
+        <v>25037</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>42520</v>
+        <v>42950</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.1061158547233887</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.07776680441472672</v>
+        <v>0.08071144689087034</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.1370724479289918</v>
+        <v>0.1384609769878972</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>51</v>
@@ -5211,19 +5211,19 @@
         <v>28196</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>20860</v>
+        <v>21009</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>36585</v>
+        <v>36461</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.06098857622079783</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.04512083908807316</v>
+        <v>0.04544336995888527</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.07913568739686855</v>
+        <v>0.07886582586380625</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>97</v>
@@ -5232,19 +5232,19 @@
         <v>61113</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>50287</v>
+        <v>51024</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>73342</v>
+        <v>74363</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.07910926624149424</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.06509563053844167</v>
+        <v>0.06605018660985676</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.09494051461447653</v>
+        <v>0.0962609958780784</v>
       </c>
     </row>
     <row r="68">
@@ -5261,19 +5261,19 @@
         <v>16821</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>10667</v>
+        <v>11238</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>24788</v>
+        <v>25493</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.05422766054537737</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.03438771438354681</v>
+        <v>0.03622697599302335</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.0799092118389961</v>
+        <v>0.08218207525898502</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>16</v>
@@ -5282,19 +5282,19 @@
         <v>9771</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>5852</v>
+        <v>5510</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>15839</v>
+        <v>16275</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.02113466047415161</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.01265804968273147</v>
+        <v>0.01191732109704229</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.03425944968113849</v>
+        <v>0.03520392128363932</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>39</v>
@@ -5303,19 +5303,19 @@
         <v>26592</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>18997</v>
+        <v>19503</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>35789</v>
+        <v>36652</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.03442303096853313</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.02459078586757504</v>
+        <v>0.02524655045238191</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.04632770339010305</v>
+        <v>0.04744542322505758</v>
       </c>
     </row>
     <row r="69">
@@ -5332,19 +5332,19 @@
         <v>6340</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>2967</v>
+        <v>2917</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>11462</v>
+        <v>11762</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.02043926468258649</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.009564573422684535</v>
+        <v>0.009405245930112579</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.03695007580415572</v>
+        <v>0.03791715293833778</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>2</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>4351</v>
+        <v>4370</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.002708706089667495</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.009411546002516319</v>
+        <v>0.009452944813349492</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>11</v>
@@ -5374,19 +5374,19 @@
         <v>7592</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>3664</v>
+        <v>4071</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>12879</v>
+        <v>13980</v>
       </c>
       <c r="U69" s="6" t="n">
-        <v>0.009828345625156746</v>
+        <v>0.009828345625156745</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.004742591735229642</v>
+        <v>0.005270326713142065</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.01667129093712989</v>
+        <v>0.01809700430497953</v>
       </c>
     </row>
     <row r="70">
@@ -5403,19 +5403,19 @@
         <v>4047</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1428</v>
+        <v>1448</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>9789</v>
+        <v>9588</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.01304792392144952</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.004604831102899511</v>
+        <v>0.0046679157228828</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.03155665840675055</v>
+        <v>0.03090938750240499</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>2</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>3379</v>
+        <v>4001</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.002069183565698152</v>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.007308545538207566</v>
+        <v>0.008655287175604228</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>7</v>
@@ -5445,19 +5445,19 @@
         <v>5004</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>2032</v>
+        <v>1864</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>10163</v>
+        <v>10332</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.006477655722796192</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.002630986758863329</v>
+        <v>0.002413470593048532</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.01315636622908754</v>
+        <v>0.01337520081096112</v>
       </c>
     </row>
     <row r="71">
@@ -5474,19 +5474,19 @@
         <v>13426</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>8427</v>
+        <v>8586</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>20795</v>
+        <v>19849</v>
       </c>
       <c r="G71" s="6" t="n">
-        <v>0.04328067785244234</v>
+        <v>0.04328067785244233</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.02716731048918468</v>
+        <v>0.02767955286183573</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.06703868176053493</v>
+        <v>0.06398863671277308</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>7</v>
@@ -5495,19 +5495,19 @@
         <v>4283</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>1695</v>
+        <v>1722</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>7967</v>
+        <v>8276</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.009264514547564376</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.003665649347976385</v>
+        <v>0.003724440834532108</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.01723359620365912</v>
+        <v>0.01790133052100513</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>27</v>
@@ -5516,19 +5516,19 @@
         <v>17709</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>11437</v>
+        <v>11829</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>25200</v>
+        <v>25500</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.02292357778812058</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.01480476735337974</v>
+        <v>0.01531221593067486</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.03262066370063275</v>
+        <v>0.03300948617342367</v>
       </c>
     </row>
     <row r="72">
@@ -5545,19 +5545,19 @@
         <v>61164</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>50608</v>
+        <v>48919</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>73982</v>
+        <v>72271</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.1971770171632559</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.1631484930468924</v>
+        <v>0.1577025322316635</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.2384991965092337</v>
+        <v>0.232982352089912</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>14</v>
@@ -5566,19 +5566,19 @@
         <v>8673</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>4805</v>
+        <v>4714</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>15709</v>
+        <v>15555</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.01875966951571748</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.01039357967886105</v>
+        <v>0.0101973428086489</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.03397943385065176</v>
+        <v>0.03364582191598809</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>110</v>
@@ -5587,19 +5587,19 @@
         <v>69837</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>58255</v>
+        <v>57300</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>84251</v>
+        <v>83031</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.0904024886334326</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.0754106046959187</v>
+        <v>0.0741743180380741</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.109060930852068</v>
+        <v>0.1074826628509365</v>
       </c>
     </row>
     <row r="73">
@@ -5691,19 +5691,19 @@
         <v>620735</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>570483</v>
+        <v>569131</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>669629</v>
+        <v>673675</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.1760847114007972</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.161829647124162</v>
+        <v>0.1614461578372334</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.1899544873213449</v>
+        <v>0.1911022542583818</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>1845</v>
@@ -5712,19 +5712,19 @@
         <v>1186464</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>1139343</v>
+        <v>1135361</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>1237041</v>
+        <v>1233085</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.3183532230944283</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.3057096349695195</v>
+        <v>0.304641200187052</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.3319240739077826</v>
+        <v>0.3308625014123517</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>2450</v>
@@ -5733,19 +5733,19 @@
         <v>1807199</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>1741886</v>
+        <v>1740185</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>1886694</v>
+        <v>1874859</v>
       </c>
       <c r="U74" s="6" t="n">
-        <v>0.2491971029518278</v>
+        <v>0.2491971029518277</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.2401909293445659</v>
+        <v>0.2399563470968033</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.2601586911643961</v>
+        <v>0.2585268153710837</v>
       </c>
     </row>
     <row r="75">
@@ -5762,19 +5762,19 @@
         <v>423071</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>384441</v>
+        <v>383784</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>464046</v>
+        <v>465495</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.1200130321410216</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.109054823337019</v>
+        <v>0.1088684490311156</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.1316363515742004</v>
+        <v>0.1320474664995391</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>855</v>
@@ -5783,19 +5783,19 @@
         <v>559144</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>519833</v>
+        <v>520844</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>595594</v>
+        <v>596803</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.1500301709564912</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.1394820780659523</v>
+        <v>0.1397533797350737</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.1598104059249308</v>
+        <v>0.1601346884767896</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>1308</v>
@@ -5804,19 +5804,19 @@
         <v>982215</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>934018</v>
+        <v>926956</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>1040117</v>
+        <v>1041506</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.1354389670875</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.1287929109227121</v>
+        <v>0.1278191309133816</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.1434231528114977</v>
+        <v>0.1436146106980613</v>
       </c>
     </row>
     <row r="76">
@@ -5833,19 +5833,19 @@
         <v>471540</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>426169</v>
+        <v>430558</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>517685</v>
+        <v>521595</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.1337622417832984</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.1208918285491239</v>
+        <v>0.12213678935878</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.146852239218085</v>
+        <v>0.1479613529695695</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>928</v>
@@ -5854,19 +5854,19 @@
         <v>675044</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>636558</v>
+        <v>635876</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>722132</v>
+        <v>715151</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.1811283751043468</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.170801870544213</v>
+        <v>0.1706190078269188</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.1937631207348611</v>
+        <v>0.1918901333431613</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>1358</v>
@@ -5875,19 +5875,19 @@
         <v>1146583</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>1087162</v>
+        <v>1082728</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>1209861</v>
+        <v>1204380</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.1581038985870495</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.1499102298842986</v>
+        <v>0.1492988581486796</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.1668292966510725</v>
+        <v>0.1660736125062239</v>
       </c>
     </row>
     <row r="77">
@@ -5904,19 +5904,19 @@
         <v>617665</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>563103</v>
+        <v>569049</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>675161</v>
+        <v>672885</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.1752136717945443</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.1597359698608743</v>
+        <v>0.1614227708425876</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.1915235920401345</v>
+        <v>0.1908779513520223</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>861</v>
@@ -5925,19 +5925,19 @@
         <v>673544</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>631279</v>
+        <v>631376</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>718121</v>
+        <v>718882</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.1807259017525022</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.1693855328816168</v>
+        <v>0.1694114389027886</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.1926870257175858</v>
+        <v>0.1928912392411176</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1370</v>
@@ -5946,19 +5946,19 @@
         <v>1291208</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1222390</v>
+        <v>1222292</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>1361917</v>
+        <v>1357711</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.1780464301485039</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.1685569912001796</v>
+        <v>0.168543498562444</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.1877966035124138</v>
+        <v>0.1872165361654429</v>
       </c>
     </row>
     <row r="78">
@@ -5975,19 +5975,19 @@
         <v>660517</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>610069</v>
+        <v>607681</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>716122</v>
+        <v>713493</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.1873695636187518</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.1730589373271402</v>
+        <v>0.1723814439686757</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.2031431150773793</v>
+        <v>0.2023974194349767</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>567</v>
@@ -5996,19 +5996,19 @@
         <v>432535</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>399689</v>
+        <v>397936</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>470950</v>
+        <v>474020</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.1160582740482242</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.1072448762665702</v>
+        <v>0.106774671258359</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.1263658904434016</v>
+        <v>0.1271895555463276</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>1130</v>
@@ -6017,19 +6017,19 @@
         <v>1093052</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>1029780</v>
+        <v>1030520</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>1159740</v>
+        <v>1157737</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.1507223894617824</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.1419976799730621</v>
+        <v>0.1420998056311107</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.1599181353732884</v>
+        <v>0.1596419286367518</v>
       </c>
     </row>
     <row r="79">
@@ -6046,19 +6046,19 @@
         <v>118565</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>96778</v>
+        <v>98061</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>142811</v>
+        <v>143102</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.03363333493130605</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.0274531114409353</v>
+        <v>0.02781719864146161</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.04051144210938624</v>
+        <v>0.04059395902014729</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>84</v>
@@ -6067,19 +6067,19 @@
         <v>61749</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>48322</v>
+        <v>48893</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>77148</v>
+        <v>76475</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.01656856067441726</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.0129658589606017</v>
+        <v>0.01311891722399126</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.02070033162865194</v>
+        <v>0.02051997432175438</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>199</v>
@@ -6088,19 +6088,19 @@
         <v>180314</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>157164</v>
+        <v>156676</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>209042</v>
+        <v>210810</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.02486367506527503</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.02167156771851815</v>
+        <v>0.02160420530782495</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.02882512925432718</v>
+        <v>0.02906887351157801</v>
       </c>
     </row>
     <row r="80">
@@ -6117,19 +6117,19 @@
         <v>38217</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>27150</v>
+        <v>27330</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>52463</v>
+        <v>56284</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.01084096902897752</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.00770180705312646</v>
+        <v>0.007752708005522439</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.01488220016172224</v>
+        <v>0.01596603231766912</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>30</v>
@@ -6138,19 +6138,19 @@
         <v>18888</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>12466</v>
+        <v>13109</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>27618</v>
+        <v>28230</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.005067959014728405</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.003344979562041171</v>
+        <v>0.003517347395433776</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.0074104133689054</v>
+        <v>0.007574765430899745</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>69</v>
@@ -6159,19 +6159,19 @@
         <v>57104</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>44993</v>
+        <v>42539</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>73762</v>
+        <v>74601</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.007874194698064928</v>
+        <v>0.007874194698064932</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.006204083376766165</v>
+        <v>0.005865755569880562</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.01017116671030832</v>
+        <v>0.01028684285739563</v>
       </c>
     </row>
     <row r="81">
@@ -6188,19 +6188,19 @@
         <v>82160</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>66471</v>
+        <v>67355</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>99469</v>
+        <v>100837</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.0233062922775561</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.01885589935161379</v>
+        <v>0.01910673864759566</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.028216383783981</v>
+        <v>0.02860451576912005</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>33</v>
@@ -6209,19 +6209,19 @@
         <v>21174</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>15043</v>
+        <v>14669</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>29580</v>
+        <v>30301</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.005681350599007182</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.004036280831855937</v>
+        <v>0.003936045747290726</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.007936980809674978</v>
+        <v>0.008130466874546174</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>130</v>
@@ -6230,19 +6230,19 @@
         <v>103333</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>85169</v>
+        <v>85658</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>122207</v>
+        <v>121975</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.01424875999774218</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.01174400315663465</v>
+        <v>0.01181142966332926</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.01685132795371646</v>
+        <v>0.01681935300173321</v>
       </c>
     </row>
     <row r="82">
@@ -6259,19 +6259,19 @@
         <v>492740</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>449869</v>
+        <v>454498</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>531474</v>
+        <v>534320</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.139776183023747</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1276148485817586</v>
+        <v>0.1289278609675074</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.1507637948444414</v>
+        <v>0.151571125151597</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>150</v>
@@ -6280,19 +6280,19 @@
         <v>98338</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>84198</v>
+        <v>84414</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>116047</v>
+        <v>116642</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.02638618475585439</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.0225922092521919</v>
+        <v>0.02264999030178472</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.03113777247528933</v>
+        <v>0.03129753824337748</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>708</v>
@@ -6301,19 +6301,19 @@
         <v>591078</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>548920</v>
+        <v>545833</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>636520</v>
+        <v>639127</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.08150458200225423</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.07569133831320497</v>
+        <v>0.07526558406375604</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.08777054143983945</v>
+        <v>0.08813001121303625</v>
       </c>
     </row>
     <row r="83">
